--- a/Illusions.xlsx
+++ b/Illusions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="213">
   <si>
     <t>ЕгоЧудо</t>
   </si>
@@ -646,6 +646,15 @@
   </si>
   <si>
     <t>Эmик</t>
+  </si>
+  <si>
+    <t>Erohin</t>
+  </si>
+  <si>
+    <t>Vzhik</t>
+  </si>
+  <si>
+    <t>Балкис</t>
   </si>
 </sst>
 </file>
@@ -1715,12 +1724,43 @@
     <xf numFmtId="0" fontId="29" fillId="8" borderId="28" xfId="5" applyBorder="1"/>
     <xf numFmtId="20" fontId="18" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1739,43 +1779,12 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Вывод" xfId="5" builtinId="21"/>
@@ -2186,10 +2195,10 @@
   </sheetPr>
   <dimension ref="A1:AQ123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="S105" sqref="S105"/>
+      <selection pane="bottomLeft" activeCell="I110" sqref="I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2214,81 +2223,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="37" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="152" t="s">
+      <c r="B1" s="146"/>
+      <c r="C1" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="162"/>
-      <c r="E1" s="160" t="s">
+      <c r="D1" s="154"/>
+      <c r="E1" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="144" t="s">
+      <c r="F1" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="144" t="s">
+      <c r="G1" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="144" t="s">
+      <c r="H1" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="144" t="s">
+      <c r="I1" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="144" t="s">
+      <c r="J1" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="144" t="s">
+      <c r="K1" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="144" t="s">
+      <c r="L1" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="144" t="s">
+      <c r="M1" s="151" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="154" t="s">
+      <c r="N1" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="148" t="s">
+      <c r="O1" s="159" t="s">
         <v>125</v>
       </c>
-      <c r="P1" s="152" t="s">
+      <c r="P1" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="146" t="s">
+      <c r="Q1" s="157" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="147"/>
-      <c r="S1" s="147"/>
-      <c r="T1" s="147"/>
-      <c r="U1" s="147"/>
-      <c r="V1" s="147"/>
-      <c r="W1" s="147"/>
-      <c r="X1" s="147"/>
-      <c r="Y1" s="150" t="s">
+      <c r="R1" s="158"/>
+      <c r="S1" s="158"/>
+      <c r="T1" s="158"/>
+      <c r="U1" s="158"/>
+      <c r="V1" s="158"/>
+      <c r="W1" s="158"/>
+      <c r="X1" s="158"/>
+      <c r="Y1" s="161" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:43" s="37" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="158"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="153"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="155"/>
       <c r="Q2" s="33" t="s">
         <v>107</v>
       </c>
@@ -2313,7 +2322,7 @@
       <c r="X2" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="Y2" s="151"/>
+      <c r="Y2" s="162"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C3" s="46">
@@ -8523,7 +8532,7 @@
       <c r="M99" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="N99" s="164" t="s">
+      <c r="N99" s="144" t="s">
         <v>208</v>
       </c>
       <c r="O99" s="40">
@@ -8568,6 +8577,36 @@
       <c r="D100" s="45" t="s">
         <v>91</v>
       </c>
+      <c r="E100" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J100" s="137" t="s">
+        <v>1</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L100" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="N100" s="16" t="s">
+        <v>210</v>
+      </c>
       <c r="O100" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -8852,22 +8891,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="N1:N2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A18" r:id="rId1"/>

--- a/Illusions.xlsx
+++ b/Illusions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="215">
   <si>
     <t>ЕгоЧудо</t>
   </si>
@@ -655,6 +655,12 @@
   </si>
   <si>
     <t>Балкис</t>
+  </si>
+  <si>
+    <t>Teaya</t>
+  </si>
+  <si>
+    <t>Vаn4iK</t>
   </si>
 </sst>
 </file>
@@ -1725,6 +1731,42 @@
     <xf numFmtId="20" fontId="18" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1743,46 +1785,10 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2196,9 +2202,9 @@
   <dimension ref="A1:AQ123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="I110" sqref="I110"/>
+      <selection pane="bottomLeft" activeCell="I107" sqref="I107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2223,81 +2229,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="37" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="158"/>
       <c r="C1" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="154"/>
-      <c r="E1" s="149" t="s">
+      <c r="D1" s="163"/>
+      <c r="E1" s="161" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="151" t="s">
+      <c r="F1" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="151" t="s">
+      <c r="G1" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="151" t="s">
+      <c r="H1" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="151" t="s">
+      <c r="I1" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="151" t="s">
+      <c r="J1" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="151" t="s">
+      <c r="K1" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="151" t="s">
+      <c r="L1" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="151" t="s">
+      <c r="M1" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="163" t="s">
+      <c r="N1" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="159" t="s">
+      <c r="O1" s="149" t="s">
         <v>125</v>
       </c>
       <c r="P1" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="157" t="s">
+      <c r="Q1" s="147" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="158"/>
-      <c r="S1" s="158"/>
-      <c r="T1" s="158"/>
-      <c r="U1" s="158"/>
-      <c r="V1" s="158"/>
-      <c r="W1" s="158"/>
-      <c r="X1" s="158"/>
-      <c r="Y1" s="161" t="s">
+      <c r="R1" s="148"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="148"/>
+      <c r="U1" s="148"/>
+      <c r="V1" s="148"/>
+      <c r="W1" s="148"/>
+      <c r="X1" s="148"/>
+      <c r="Y1" s="151" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:43" s="37" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="147"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="155"/>
+      <c r="A2" s="159"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="150"/>
+      <c r="P2" s="154"/>
       <c r="Q2" s="33" t="s">
         <v>107</v>
       </c>
@@ -2322,7 +2328,7 @@
       <c r="X2" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="Y2" s="162"/>
+      <c r="Y2" s="152"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C3" s="46">
@@ -8354,7 +8360,7 @@
         <v>0.9819444444444444</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C97" s="47">
         <v>42838</v>
       </c>
@@ -8426,7 +8432,7 @@
         <v>0.96527777777777779</v>
       </c>
     </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C98" s="47">
         <v>42839</v>
       </c>
@@ -8498,7 +8504,7 @@
         <v>0.97986111111111107</v>
       </c>
     </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C99" s="47">
         <v>42840</v>
       </c>
@@ -8570,7 +8576,7 @@
         <v>0.94791666666666663</v>
       </c>
     </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C100" s="47">
         <v>42841</v>
       </c>
@@ -8612,19 +8618,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C101" s="47">
         <v>42842</v>
       </c>
       <c r="D101" s="45" t="s">
         <v>92</v>
       </c>
+      <c r="E101" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="N101" s="19" t="s">
+        <v>167</v>
+      </c>
       <c r="O101" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C102" s="47">
         <v>42843</v>
       </c>
@@ -8636,7 +8672,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A103" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="C103" s="47">
         <v>42844</v>
       </c>
@@ -8649,7 +8691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C104" s="47">
         <v>42845</v>
       </c>
@@ -8661,7 +8703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C105" s="47">
         <v>42846</v>
       </c>
@@ -8673,7 +8715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C106" s="47">
         <v>42847</v>
       </c>
@@ -8685,7 +8727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C107" s="47">
         <v>42848</v>
       </c>
@@ -8697,7 +8739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C108" s="47">
         <v>42849</v>
       </c>
@@ -8709,7 +8751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C109" s="47">
         <v>42850</v>
       </c>
@@ -8721,7 +8763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C110" s="47">
         <v>42851</v>
       </c>
@@ -8733,7 +8775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C111" s="47">
         <v>42852</v>
       </c>
@@ -8745,7 +8787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C112" s="47">
         <v>42853</v>
       </c>
@@ -8891,22 +8933,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="C1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="N1:N2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A18" r:id="rId1"/>
